--- a/rev_b/hdw/Pulse_Oximeter/Pulse_Oximeter_bom_B_deployable.xlsx
+++ b/rev_b/hdw/Pulse_Oximeter/Pulse_Oximeter_bom_B_deployable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Drew Maatman\Documents\KiCad Projects\Projects\pulse_oximeter\hdw\rev_b\Pulse_Oximeter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Drew Maatman\Documents\KiCad Projects\Projects\pulse_oximeter\rev_b\hdw\Pulse_Oximeter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C2DD859-85F7-4E1E-A743-15D5421E63F9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88255869-E2E7-4E73-9692-A53A483D7DA0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -178,9 +178,6 @@
     <t>R402 R408 R1503 R1504 R1608</t>
   </si>
   <si>
-    <t>R407 R603 R604 R801 R803 R1003 R1603</t>
-  </si>
-  <si>
     <t>RMCF0402FT100RCT-ND</t>
   </si>
   <si>
@@ -193,9 +190,6 @@
     <t>R204 R215 R216 R217 R805 R1508 R1701 R1702 R1802 R1803 R1804 R1805 R1903 R1904 R1907 R1908</t>
   </si>
   <si>
-    <t>R202 R205 R206 R212 R214 R218 R219 R220 R401 R403 R404 R405 R406 R601 R602 R802 R804 R1001 R1004 R1101 R1102 R1501 R1502 R1505 R1506 R1507 R1601 R1602 R1604 R1605 R1606 R1607 R1609 R1610 R1611 R1612 R1613 R1614 R1615 R1703 R1704 R1705 R1801 R1901 R1902 R1905 R1906 R2001 R2003</t>
-  </si>
-  <si>
     <t>10k</t>
   </si>
   <si>
@@ -317,6 +311,12 @@
   </si>
   <si>
     <t>296-22862-1-ND</t>
+  </si>
+  <si>
+    <t>R407 R603 R604 R801 R803 R1003 R1604</t>
+  </si>
+  <si>
+    <t>R202 R205 R206 R212 R214 R218 R219 R220 R401 R403 R404 R405 R406 R601 R602 R802 R804 R1001 R1004 R1101 R1102 R1501 R1502 R1505 R1506 R1507 R1601 R1602 R1603 R1605 R1606 R1607 R1609 R1610 R1611 R1612 R1613 R1614 R1615 R1703 R1704 R1705 R1801 R1901 R1902 R1905 R1906 R2001 R2003</t>
   </si>
 </sst>
 </file>
@@ -1166,8 +1166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1468,7 +1468,7 @@
     </row>
     <row r="20" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="B20" s="1">
         <v>100</v>
@@ -1477,61 +1477,61 @@
         <v>7</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C21" s="1">
         <v>16</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C22" s="1">
         <v>49</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C23" s="1">
         <v>6</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C24" s="1">
         <v>1</v>
@@ -1541,10 +1541,10 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C25" s="1">
         <v>1</v>
@@ -1554,85 +1554,85 @@
     </row>
     <row r="26" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C26" s="1">
         <v>5</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C27" s="1">
         <v>2</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C28" s="1">
         <v>4</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E28" s="1"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C29" s="1">
         <v>1</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E29" s="1"/>
     </row>
     <row r="30" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="C30" s="1">
-        <v>1</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="E30" s="1"/>
     </row>
     <row r="31" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C31" s="1">
         <v>1</v>
@@ -1642,106 +1642,106 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="C32" s="1">
-        <v>1</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="E32" s="1"/>
     </row>
     <row r="33" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="C33" s="1">
-        <v>1</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="E33" s="1"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="C34" s="1">
-        <v>1</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="E34" s="1"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="C35" s="1">
-        <v>1</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="E35" s="1"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C36" s="1">
+        <v>1</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C36" s="1">
-        <v>1</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="E36" s="1"/>
     </row>
     <row r="37" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C37" s="1">
+        <v>1</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="C37" s="1">
-        <v>1</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="E37" s="1"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C38" s="1">
+        <v>1</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="C38" s="1">
-        <v>1</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="E38" s="1"/>
     </row>
